--- a/JAVA data/framework/프레임워크.xlsx
+++ b/JAVA data/framework/프레임워크.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\전직활동\JAVA data\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62783CB-B4E9-43AA-AD09-A7EC5EA18531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC85BE-F0BF-49C5-9300-9FEA087C2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3CB34740-8D9C-45DF-9D00-107C4656115B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CB34740-8D9C-45DF-9D00-107C4656115B}"/>
   </bookViews>
   <sheets>
-    <sheet name="1p" sheetId="1" r:id="rId1"/>
-    <sheet name="2p" sheetId="2" r:id="rId2"/>
+    <sheet name="스프링개요" sheetId="1" r:id="rId1"/>
+    <sheet name="DI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>스프링</t>
     <phoneticPr fontId="1"/>
@@ -272,15 +272,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>스프링 사용 안하고 한번 부품 조립해보기</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>스프링 사용 안한 예 소스 분석</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>토탈과 평균 구하기 소스</t>
+    <t>구조도</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public interface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -288,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +338,13 @@
     </font>
     <font>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -499,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,18 +538,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -574,6 +581,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,8 +1237,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5539740" y="2697480"/>
-            <a:ext cx="2842260" cy="1249680"/>
+            <a:off x="5431505" y="2403565"/>
+            <a:ext cx="2842260" cy="1472837"/>
           </a:xfrm>
           <a:prstGeom prst="borderCallout1">
             <a:avLst>
@@ -1297,309 +1319,799 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>3266</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>214448</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>459376</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>225334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>31568</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>555170</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139337</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC318329-176E-440B-9AFE-902FD51D7F13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9BC44A-F481-428F-9D55-B344223AB0B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9745980" y="214448"/>
-          <a:ext cx="3138351" cy="1645920"/>
+          <a:off x="9527176" y="1139734"/>
+          <a:ext cx="9457508" cy="11572603"/>
+          <a:chOff x="9712234" y="214448"/>
+          <a:chExt cx="8194765" cy="11572603"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="18" name="グループ化 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA9F16B-29B0-4A7A-AF9F-6397FD8BF9E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9745980" y="214448"/>
+            <a:ext cx="3138351" cy="1645920"/>
+            <a:chOff x="9745980" y="214448"/>
+            <a:chExt cx="3138351" cy="1645920"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="図 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC318329-176E-440B-9AFE-902FD51D7F13}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9745980" y="214448"/>
+              <a:ext cx="3138351" cy="1645920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="正方形/長方形 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5509983E-9BB8-476C-AFC3-E310D96D2602}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11908971" y="598714"/>
+              <a:ext cx="598715" cy="337457"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="グループ化 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCEAF826-73B7-4AE7-9F53-C3110D828751}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9731828" y="2066108"/>
+            <a:ext cx="4884420" cy="3642360"/>
+            <a:chOff x="9731828" y="2066108"/>
+            <a:chExt cx="4884420" cy="3642360"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="図 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1081D9-E62E-457F-963D-4A7526ECB906}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9731828" y="2066108"/>
+              <a:ext cx="4884420" cy="3642360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="正方形/長方形 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C186E3C6-16D3-484E-B7EF-C4F610F67F1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11517087" y="2416628"/>
+              <a:ext cx="1143000" cy="413658"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="グループ化 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E630F8-CA68-4205-B981-C0BD56B614FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9755778" y="5937069"/>
+            <a:ext cx="3740331" cy="1165860"/>
+            <a:chOff x="9755778" y="5937069"/>
+            <a:chExt cx="3740331" cy="1165860"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="図 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEBCCE4-42CF-49A2-B928-53BD5EA14BE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9755778" y="5937069"/>
+              <a:ext cx="3740331" cy="1165860"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="正方形/長方形 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD74BD77-6DE6-4F65-907D-6665626BBA33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12006943" y="6281057"/>
+              <a:ext cx="1197430" cy="413658"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="グループ化 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78EA537-A7DD-47A1-9E6A-2E7C17C5DCCC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9712234" y="7306491"/>
+            <a:ext cx="8194765" cy="4480560"/>
+            <a:chOff x="306977" y="5270863"/>
+            <a:chExt cx="8194765" cy="4480560"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="図 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE49D89D-B03F-4E0D-BEBC-C645C6939848}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="306977" y="5270863"/>
+              <a:ext cx="8194765" cy="4480560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="正方形/長方形 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66BDF4F-6D62-4DE2-9FB5-A39A30C48238}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2057400" y="6041571"/>
+              <a:ext cx="1741714" cy="413658"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>664028</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8708</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>97970</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>149134</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>222068</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="吹き出し: 線 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1081D9-E62E-457F-963D-4A7526ECB906}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C364CD80-A4F7-4522-893B-8CD22CC26E72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="9731828" y="2066108"/>
-          <a:ext cx="4884420" cy="3642360"/>
+          <a:off x="13215256" y="1055913"/>
+          <a:ext cx="2449287" cy="402773"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50840"/>
+            <a:gd name="adj2" fmla="val -22"/>
+            <a:gd name="adj3" fmla="val 145183"/>
+            <a:gd name="adj4" fmla="val -45794"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>합계와 평균을 나타내는 인터페이스</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>13064</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>222069</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>283028</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>378823</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="吹き出し: 線 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEBCCE4-42CF-49A2-B928-53BD5EA14BE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3028A14-D7C5-45F8-8A48-7EBA91285FC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="9755778" y="5937069"/>
-          <a:ext cx="3740331" cy="1165860"/>
+          <a:off x="13400314" y="2764971"/>
+          <a:ext cx="2307771" cy="598715"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50840"/>
+            <a:gd name="adj2" fmla="val -22"/>
+            <a:gd name="adj3" fmla="val 92351"/>
+            <a:gd name="adj4" fmla="val -22209"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>인터페이스에 값을 넘기는 클래스</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>합계값과 평균값을 넘김</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>13063</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13063</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>217712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>150223</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>772886</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="吹き出し: 線 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE49D89D-B03F-4E0D-BEBC-C645C6939848}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42399AB5-6A91-42CD-8106-6CCF0574A457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="306977" y="5270863"/>
-          <a:ext cx="8194765" cy="4480560"/>
+          <a:off x="14173199" y="6618512"/>
+          <a:ext cx="2416630" cy="402773"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50840"/>
+            <a:gd name="adj2" fmla="val -22"/>
+            <a:gd name="adj3" fmla="val 145183"/>
+            <a:gd name="adj4" fmla="val -45794"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>void</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>출력하는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>인터페이스</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="吹き出し: 線 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37E2114-0C4F-4976-AE5C-7740FC8E12CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7DB6BD-64C8-41B9-9FD2-5CA87D267C36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1661160" y="11186160"/>
-          <a:ext cx="8763000" cy="3710940"/>
+          <a:off x="14194971" y="8414658"/>
+          <a:ext cx="2188029" cy="620485"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50840"/>
+            <a:gd name="adj2" fmla="val -22"/>
+            <a:gd name="adj3" fmla="val 93401"/>
+            <a:gd name="adj4" fmla="val -31863"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>void</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>출력하는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>인터페이스에 값을 넘기는 클래스</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1904,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8EE1A3-6743-448A-8BD8-1427DB8D71C8}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1916,26 +2428,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1990,42 +2502,42 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
@@ -2082,37 +2594,37 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2125,49 +2637,49 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="23"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" ht="18.600000000000001" thickBot="1">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="18.600000000000001" thickBot="1">
       <c r="B39" s="1" t="s">
@@ -2178,22 +2690,22 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="18.600000000000001" thickBot="1">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="1" t="s">
@@ -2261,13 +2773,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2278,62 +2790,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9920F2D5-78D6-48F0-BCD3-27F88BE7598C}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="25" max="25" width="14.5" customWidth="1"/>
+    <col min="26" max="26" width="19.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="4" spans="1:8">
+    <row r="1" spans="1:25">
+      <c r="A1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="Y6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="8" spans="1:25">
+      <c r="Y8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="6"/>
       <c r="B10" s="1"/>
+      <c r="Y10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="Y12" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/JAVA data/framework/프레임워크.xlsx
+++ b/JAVA data/framework/프레임워크.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\전직활동\JAVA data\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC85BE-F0BF-49C5-9300-9FEA087C2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245AD621-255E-4DF2-AA71-A0BA0245192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CB34740-8D9C-45DF-9D00-107C4656115B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3CB34740-8D9C-45DF-9D00-107C4656115B}"/>
   </bookViews>
   <sheets>
     <sheet name="스프링개요" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>스프링</t>
     <phoneticPr fontId="1"/>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>public interface</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>public</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -293,6 +289,731 @@
   </si>
   <si>
     <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Exam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">은 인터페이스 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ewlecExam은 인터페이스에 값을 넘기는 클래스</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExamConsole은 인터페이스이고 GridExamConsole이 인터페이스에 값을 넘기는 클래스</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exam은 객체</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GridExamConsole에 객체 exam을 결합(인젝션)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GirdExamConsole값이 인터페이스 ExamConsole의 객체인 console에 값으로 들어감</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>보이드 타입 메소드는 반환값이 없는 메소드</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>즉 리턴이 없다는 의미</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이것으로 선언된 클래스멤버는 외부에 공개 안됨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>즉 해당 객체의 퍼블릭메소드를 통해서만 접근 가능</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>제한없이 어디서나 접근 가능하다는 뜻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>외부에서 지정된 변수 등을 자유로히 사용가능</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>클래스들이 구현해야하는 동작을 지정하는 추상자료형</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>상세 분석</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일단은 Exam이란 인터페이스를 설정한다. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exam안에는 토탈함수와 평균함수 박스를만들어둠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>그리고 NewlecExam이란 클래스를 만들고</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이NewlecExam클래스는 인터페이스 객체</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exam에 값을 넣게 한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NewlecExam에는 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4과목의 점수를 넣고</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이때 인터페이스에 토탈과 평균함수에</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>넘길 값을 각각 리턴을 통해 넣어줌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>자신을 가르키는 키워드</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>같은 방식으로 인터페이스 ExamConsole을 설정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void print()로 반환값없이 출력한다를 지정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>클래스GridExamConsole은 토탈과 평균을</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">출력하도록 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않고는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형식으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>println()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변수의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>printf()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반면에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> printf()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지시자를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변수의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>여러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>형식으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변환하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출력할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Exam안에는 토탈함수와 평균함수 그릇이 만들어져있다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>그걸 임포트 해와서 사용할 거고</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이 단계에선 exam그릇을 선언해주고 (현재 안은 null상태)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GridExamConsole(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">객체)에서 객체넣은걸 빈그릇 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>exam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 넣는단</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>내용</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -300,7 +1021,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +1066,48 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -518,7 +1281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,10 +1345,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -596,6 +1359,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,7 +2101,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>555170</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>139337</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1346,7 +2118,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="9527176" y="1139734"/>
-          <a:ext cx="9457508" cy="11572603"/>
+          <a:ext cx="9457508" cy="11801203"/>
           <a:chOff x="9712234" y="214448"/>
           <a:chExt cx="8194765" cy="11572603"/>
         </a:xfrm>
@@ -2039,13 +2811,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>402771</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>185058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2112,6 +2884,733 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>532311</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>203563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19CE555-20A7-467A-A75C-45F4D5F5350F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="326571" y="5682343"/>
+          <a:ext cx="2524397" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111035</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7312B725-055F-4CAA-9134-4563B35F0F6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="283029" y="6640285"/>
+          <a:ext cx="4171406" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A21E4C-278F-4E68-AEFA-7241B3C747DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2993571" y="8599714"/>
+          <a:ext cx="6180909" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>283028</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8710</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>158933</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="53" name="グループ化 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D549985-9DFA-4AA6-9DAA-99ED7856AB56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="283028" y="14412686"/>
+          <a:ext cx="14192796" cy="11806647"/>
+          <a:chOff x="283028" y="14412686"/>
+          <a:chExt cx="14192796" cy="11806647"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="38" name="グループ化 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3A5998-E281-4FED-981D-6DA8BA8F9D2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="283028" y="14412686"/>
+            <a:ext cx="14192796" cy="11806647"/>
+            <a:chOff x="272141" y="8915399"/>
+            <a:chExt cx="14192796" cy="11806647"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="39" name="グループ化 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0BA509-6C98-488E-9F7A-DDEA8713401E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="304800" y="8915399"/>
+              <a:ext cx="6974745" cy="1645920"/>
+              <a:chOff x="315686" y="13944599"/>
+              <a:chExt cx="6974745" cy="1645920"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="47" name="図 46">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF9CCF4-F247-4E7B-8C05-5E666566E531}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3668487" y="13944599"/>
+                <a:ext cx="3621944" cy="1645920"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="48" name="図 47">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D19F0B5-B7C9-4A6F-8C44-FB1E55E55D22}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="315686" y="13955485"/>
+                <a:ext cx="2539637" cy="220980"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="図 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1311D4B2-BC7F-4D23-8CAD-1D4613881507}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3668486" y="10744200"/>
+              <a:ext cx="5637067" cy="3642360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="図 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1614191E-31F0-474A-A0E8-89CCC45E95DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5040088" y="14837228"/>
+              <a:ext cx="4316684" cy="1165860"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="42" name="図 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80B5586-024F-4E89-9133-C98ECA1280AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="293914" y="14630400"/>
+              <a:ext cx="4171406" cy="220980"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="図 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21229250-F491-4C5A-9756-5F02F25CAD3C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5007429" y="16241486"/>
+              <a:ext cx="9457508" cy="4480560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="図 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77544CC2-9D78-419D-AAC7-12F666AF7564}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="272141" y="16687799"/>
+              <a:ext cx="3275511" cy="236220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="52" name="グループ化 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F34250-5C0E-4F1A-AE9A-8CD42FC22B2E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="283028" y="23219229"/>
+            <a:ext cx="4179026" cy="1034143"/>
+            <a:chOff x="283028" y="23219229"/>
+            <a:chExt cx="4179026" cy="1034143"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="50" name="図 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179465F9-7B2B-4ECE-934E-E4FEFD874260}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="283028" y="23219229"/>
+              <a:ext cx="4179026" cy="960120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="矢印: 下カーブ 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD4EA49-AC9D-4C69-B13F-E32645C62713}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="2351315" y="23915914"/>
+              <a:ext cx="849086" cy="337458"/>
+            </a:xfrm>
+            <a:prstGeom prst="curvedDownArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2416,7 +3915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8EE1A3-6743-448A-8BD8-1427DB8D71C8}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2428,26 +3927,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -2528,16 +4027,16 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
@@ -2790,10 +4289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9920F2D5-78D6-48F0-BCD3-27F88BE7598C}">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y101" sqref="Y101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2803,29 +4302,29 @@
     <col min="26" max="26" width="19.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2837,39 +4336,244 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:25">
-      <c r="Y6" s="1" t="s">
+    <row r="6" spans="1:26">
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="Y8" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="Y8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="Z9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="6"/>
       <c r="B10" s="1"/>
       <c r="Y10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="Z11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="Y12" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="Z13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="Y15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26">
+      <c r="Y17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26">
+      <c r="Y19" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z19" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26">
+      <c r="Z20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26">
+      <c r="Y22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z22" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="Z23" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="28" spans="2:26">
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26">
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B60:F61"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JAVA data/framework/프레임워크.xlsx
+++ b/JAVA data/framework/프레임워크.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\전직활동\JAVA data\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245AD621-255E-4DF2-AA71-A0BA0245192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB99668-833F-4E81-B5EA-A1BE37D05158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3CB34740-8D9C-45DF-9D00-107C4656115B}"/>
   </bookViews>
   <sheets>
     <sheet name="스프링개요" sheetId="1" r:id="rId1"/>
-    <sheet name="DI" sheetId="2" r:id="rId2"/>
+    <sheet name="DI(스프링사용 X)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>스프링</t>
     <phoneticPr fontId="1"/>
@@ -1015,6 +1015,52 @@
   <si>
     <t>내용</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>자바에서 메모리 할당을 한번만 해서</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메모리가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>효율적</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1345,6 +1391,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,15 +1414,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3085,15 +3131,6 @@
             <a:srgbClr val="FFFFFF"/>
           </a:contourClr>
         </a:sp3d>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3927,26 +3964,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -4001,42 +4038,42 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
@@ -4291,8 +4328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9920F2D5-78D6-48F0-BCD3-27F88BE7598C}">
   <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y101" sqref="Y101"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4303,45 +4340,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:26">
       <c r="Y6" s="1"/>
@@ -4404,10 +4441,10 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="Y19" s="26" t="s">
+      <c r="Y19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Z19" s="27" t="s">
+      <c r="Z19" s="22" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4420,13 +4457,26 @@
       <c r="Y22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Z22" s="28" t="s">
+      <c r="Z22" s="23" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:26">
-      <c r="Z23" s="28" t="s">
+      <c r="Z23" s="23" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="Y25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26">
+      <c r="Z26" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:26">
@@ -4458,20 +4508,20 @@
       <c r="A60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">

--- a/JAVA data/framework/프레임워크.xlsx
+++ b/JAVA data/framework/프레임워크.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\전직활동\JAVA data\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB99668-833F-4E81-B5EA-A1BE37D05158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B0F6C0-D4E2-4711-A7A6-582BDA66EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3CB34740-8D9C-45DF-9D00-107C4656115B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3CB34740-8D9C-45DF-9D00-107C4656115B}"/>
   </bookViews>
   <sheets>
     <sheet name="스프링개요" sheetId="1" r:id="rId1"/>
     <sheet name="DI(스프링사용 X)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
   <si>
     <t>스프링</t>
     <phoneticPr fontId="1"/>
@@ -1061,6 +1062,138 @@
       </rPr>
       <t>효율적</t>
     </r>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>모델</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>뷰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>컨트롤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>어느모델에 보내</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB에서 가져올거 가져옴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>검색입력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>다시 C로보냄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>받은 값을 V로보냄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp등사용</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao등사용</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MVC각각에 @로 기능 선언을 해야 되는 것이있다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>컨트롤러 리퀘스트 매핑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>레포지토리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>어드레스에서 ?는 패킷을 의미</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>보내는 값 = 변수</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>레거시 프로젝트 생성</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>삼단 프로젝스</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yahoo.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jp.co.yahoo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로입력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>하나의 프로젝트임</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>실행시 실행 이외 프로젝트는 빼는게 좋음 충돌 날 위험 큼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST 값이 모자이크 된다는 것과 비슷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET 그대로 값이 출력됨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>화면에서 값 출력</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${"변수명"}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1327,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1413,6 +1546,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,6 +2044,165 @@
         </xdr:sp>
       </xdr:grpSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B064707E-897A-43D0-B3BA-CD68DF906F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6370320" y="3657600"/>
+          <a:ext cx="198120" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F6B9CD-32E7-4202-B955-E10DC0CB72B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="3063240"/>
+          <a:ext cx="7620" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F85201E-AD5F-4AD3-B973-9DA017329162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10934700" y="3284220"/>
+          <a:ext cx="7620" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3950,10 +4248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8EE1A3-6743-448A-8BD8-1427DB8D71C8}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3961,9 +4259,12 @@
     <col min="1" max="1" width="4.3984375" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.59765625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="13.59765625" customWidth="1"/>
+    <col min="15" max="15" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="A1" s="25" t="s">
         <v>53</v>
       </c>
@@ -3975,7 +4276,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -3985,7 +4286,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3993,27 +4294,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:15">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:15">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:15">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:15">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -4021,7 +4322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:15">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -4037,7 +4338,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="13" spans="1:15">
+      <c r="J13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="B14" s="26" t="s">
         <v>9</v>
       </c>
@@ -4049,8 +4356,23 @@
       <c r="F14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="B15" s="26" t="s">
         <v>11</v>
       </c>
@@ -4062,12 +4384,37 @@
       <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="24"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="24" t="s">
@@ -4075,6 +4422,11 @@
       </c>
       <c r="C17" s="24"/>
     </row>
+    <row r="18" spans="1:12">
+      <c r="J18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>10</v>
@@ -4087,21 +4439,38 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="J22" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="J24" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="6" t="s">
@@ -4117,12 +4486,18 @@
         <v>24</v>
       </c>
       <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="1" t="s">
@@ -4132,6 +4507,9 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1">
       <c r="B28" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4142,6 +4520,9 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
+      <c r="J29" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="12" t="s">
@@ -4328,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9920F2D5-78D6-48F0-BCD3-27F88BE7598C}">
   <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4630,4 +5011,81 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1A8DCA-2240-45FA-AD9D-B5ED2D5BBE65}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>